--- a/expriment/leveldb/atc22exprResult.xlsx
+++ b/expriment/leveldb/atc22exprResult.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27975" windowHeight="12975"/>
+    <workbookView windowWidth="28800" windowHeight="12915"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -177,10 +177,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -249,6 +249,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -257,8 +265,105 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,112 +378,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -394,13 +394,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,13 +448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,7 +460,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,49 +514,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,19 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,13 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,37 +574,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,21 +603,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -629,26 +614,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,6 +636,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -677,11 +671,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,142 +690,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -994,10 +994,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="" altLang="en-US"/>
+              <a:rPr lang="en-US" altLang="en-US"/>
               <a:t>dedup ratio</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="en-US"/>
+            <a:endParaRPr lang="en-US" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1054,7 +1054,7 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet2!$B$19:$AC$19</c:f>
+              <c:f>Sheet2!$B$18:$AC$19</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
@@ -1158,7 +1158,7 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet2!$B$19:$AC$19</c:f>
+              <c:f>Sheet2!$B$18:$AC$19</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
@@ -1262,7 +1262,7 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet2!$B$19:$AC$19</c:f>
+              <c:f>Sheet2!$B$18:$AC$19</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
@@ -1366,7 +1366,7 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet2!$B$19:$AC$19</c:f>
+              <c:f>Sheet2!$B$18:$AC$19</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
@@ -1470,7 +1470,7 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet2!$B$19:$AC$19</c:f>
+              <c:f>Sheet2!$B$18:$AC$19</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
@@ -1574,7 +1574,7 @@
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet2!$B$19:$AC$19</c:f>
+              <c:f>Sheet2!$B$18:$AC$19</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="7"/>
                 <c:lvl>
@@ -1868,10 +1868,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="" altLang="en-US"/>
+              <a:rPr lang="en-US" altLang="en-US"/>
               <a:t>Time</a:t>
             </a:r>
-            <a:endParaRPr lang="" altLang="en-US"/>
+            <a:endParaRPr lang="en-US" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3833,8 +3833,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10417810" y="5372735"/>
-        <a:ext cx="8343265" cy="4018915"/>
+        <a:off x="7425055" y="5125085"/>
+        <a:ext cx="5822315" cy="3828415"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3863,8 +3863,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="809625" y="5429250"/>
-        <a:ext cx="8801735" cy="3981450"/>
+        <a:off x="589280" y="5172075"/>
+        <a:ext cx="6312535" cy="3790950"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4137,33 +4137,33 @@
   <sheetPr/>
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.7" style="1" customWidth="true"/>
-    <col min="2" max="2" width="9.9" style="1" customWidth="true"/>
+    <col min="1" max="1" width="7.6952380952381" style="1" customWidth="true"/>
+    <col min="2" max="2" width="9.8952380952381" style="1" customWidth="true"/>
     <col min="3" max="3" width="10.2" style="1" customWidth="true"/>
-    <col min="4" max="4" width="9.1" style="1" customWidth="true"/>
+    <col min="4" max="4" width="9.1047619047619" style="1" customWidth="true"/>
     <col min="5" max="5" width="13.8" style="1" customWidth="true"/>
-    <col min="6" max="6" width="9.9" style="1" customWidth="true"/>
+    <col min="6" max="6" width="9.8952380952381" style="1" customWidth="true"/>
     <col min="7" max="8" width="10.2" style="1" customWidth="true"/>
     <col min="9" max="9" width="13.8" style="1" customWidth="true"/>
-    <col min="10" max="10" width="9.9" style="1" customWidth="true"/>
+    <col min="10" max="10" width="9.8952380952381" style="1" customWidth="true"/>
     <col min="11" max="12" width="10.2" style="1" customWidth="true"/>
     <col min="13" max="13" width="13.8" style="1" customWidth="true"/>
-    <col min="14" max="14" width="9.9" style="1" customWidth="true"/>
+    <col min="14" max="14" width="9.8952380952381" style="1" customWidth="true"/>
     <col min="15" max="16" width="10.2" style="1" customWidth="true"/>
     <col min="17" max="17" width="13.8" style="1" customWidth="true"/>
-    <col min="18" max="18" width="9.9" style="1" customWidth="true"/>
+    <col min="18" max="18" width="9.8952380952381" style="1" customWidth="true"/>
     <col min="19" max="20" width="10.2" style="1" customWidth="true"/>
     <col min="21" max="21" width="13.8" style="1" customWidth="true"/>
-    <col min="22" max="22" width="9.9" style="1" customWidth="true"/>
+    <col min="22" max="22" width="9.8952380952381" style="1" customWidth="true"/>
     <col min="23" max="24" width="10.2" style="1" customWidth="true"/>
     <col min="25" max="25" width="13.8" style="1" customWidth="true"/>
-    <col min="26" max="26" width="9.9" style="1" customWidth="true"/>
+    <col min="26" max="26" width="9.8952380952381" style="1" customWidth="true"/>
     <col min="27" max="27" width="10.2" style="1" customWidth="true"/>
     <col min="28" max="28" width="11.2" style="1" customWidth="true"/>
     <col min="29" max="29" width="13.8" style="1" customWidth="true"/>
